--- a/FieldData/2015/xlsx_analysis/13-010 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/13-010 Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_7E05A30629C18B38011AA755CB7626522C80DBAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DC3B3E-119B-4089-A732-305E03BE4BC2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_7E05A30629C18B38011AA755CB7626522C80DBAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E61B501-6C08-4C93-939D-FA148B17705D}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="750" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marsh" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="148">
   <si>
     <t>PLOT</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1281,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1361,12 +1367,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1492,6 +1492,9 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1552,7 +1555,29 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2903,10 +2928,10 @@
   <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C173" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2919,32 +2944,32 @@
     <col min="6" max="6" width="4.59765625" style="35" customWidth="1"/>
     <col min="7" max="7" width="6.8984375" style="35" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="8.59765625" style="98"/>
+    <col min="9" max="16384" width="8.59765625" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="124" t="s">
+      <c r="B1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="124" t="s">
+      <c r="E1" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="102" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2955,7 +2980,7 @@
       <c r="B2" s="35">
         <v>1</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="47">
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -3003,7 +3028,7 @@
       <c r="B4" s="35">
         <v>1</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="47">
         <v>1</v>
       </c>
       <c r="D4" s="42" t="s">
@@ -3024,27 +3049,25 @@
       <c r="A5" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="39">
-        <v>1</v>
-      </c>
-      <c r="C5" s="40">
-        <v>1</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>39</v>
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="123">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" s="37">
         <v>5</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="38">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
@@ -3053,20 +3076,20 @@
       <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="49">
-        <v>1</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>41</v>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F6" s="37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="38"/>
     </row>
@@ -3081,16 +3104,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>126</v>
+        <v>48</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>49</v>
       </c>
       <c r="F7" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="38"/>
     </row>
@@ -3099,9 +3122,9 @@
         <v>111</v>
       </c>
       <c r="B8" s="35">
-        <v>1</v>
-      </c>
-      <c r="C8" s="49">
+        <v>2</v>
+      </c>
+      <c r="C8" s="47">
         <v>1</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -3111,7 +3134,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="37">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>7</v>
@@ -3122,23 +3145,23 @@
       <c r="A9" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="39">
-        <v>1</v>
-      </c>
-      <c r="C9" s="40">
-        <v>1</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>45</v>
+      <c r="B9" s="35">
+        <v>2</v>
+      </c>
+      <c r="C9" s="123">
+        <v>1</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="38"/>
     </row>
@@ -3147,19 +3170,19 @@
         <v>111</v>
       </c>
       <c r="B10" s="35">
-        <v>1</v>
-      </c>
-      <c r="C10" s="49">
-        <v>1</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="47">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F10" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>7</v>
@@ -3170,20 +3193,20 @@
       <c r="A11" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="39">
-        <v>1</v>
-      </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>49</v>
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="123">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>7</v>
@@ -3195,22 +3218,22 @@
         <v>111</v>
       </c>
       <c r="B12" s="35">
-        <v>1</v>
-      </c>
-      <c r="C12" s="49">
-        <v>1</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="47">
+        <v>1</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="37">
         <v>0.5</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="38"/>
     </row>
@@ -3218,18 +3241,23 @@
       <c r="A13" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="39">
-        <v>1</v>
-      </c>
-      <c r="C13" s="40">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36"/>
+      <c r="B13" s="35">
+        <v>3</v>
+      </c>
+      <c r="C13" s="123">
+        <v>1</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="37" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F13" s="37">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>7</v>
       </c>
       <c r="H13" s="38"/>
     </row>
@@ -3238,19 +3266,19 @@
         <v>111</v>
       </c>
       <c r="B14" s="35">
-        <v>2</v>
-      </c>
-      <c r="C14" s="49">
-        <v>1</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="47">
+        <v>1</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F14" s="37">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>7</v>
@@ -3262,16 +3290,16 @@
         <v>111</v>
       </c>
       <c r="B15" s="35">
-        <v>2</v>
-      </c>
-      <c r="C15" s="49">
-        <v>1</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="47">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="37">
         <v>1</v>
@@ -3286,22 +3314,22 @@
         <v>111</v>
       </c>
       <c r="B16" s="35">
-        <v>2</v>
-      </c>
-      <c r="C16" s="49">
-        <v>1</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="C16" s="47">
+        <v>1</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="37">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="38"/>
     </row>
@@ -3310,16 +3338,16 @@
         <v>111</v>
       </c>
       <c r="B17" s="35">
-        <v>2</v>
-      </c>
-      <c r="C17" s="49">
-        <v>1</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C17" s="47">
+        <v>1</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="37">
         <v>5</v>
@@ -3334,22 +3362,22 @@
         <v>111</v>
       </c>
       <c r="B18" s="35">
-        <v>2</v>
-      </c>
-      <c r="C18" s="49">
-        <v>1</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="47">
+        <v>1</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F18" s="37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="38"/>
     </row>
@@ -3358,22 +3386,22 @@
         <v>111</v>
       </c>
       <c r="B19" s="35">
-        <v>2</v>
-      </c>
-      <c r="C19" s="49">
+        <v>4</v>
+      </c>
+      <c r="C19" s="47">
         <v>1</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F19" s="37">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="38"/>
     </row>
@@ -3382,22 +3410,22 @@
         <v>111</v>
       </c>
       <c r="B20" s="35">
+        <v>4</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="37">
         <v>2</v>
       </c>
-      <c r="C20" s="49">
-        <v>1</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="37">
-        <v>3</v>
-      </c>
       <c r="G20" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" s="38"/>
     </row>
@@ -3406,22 +3434,22 @@
         <v>111</v>
       </c>
       <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="49">
-        <v>1</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="47">
+        <v>1</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="F21" s="37">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="H21" s="38"/>
     </row>
@@ -3430,22 +3458,22 @@
         <v>111</v>
       </c>
       <c r="B22" s="35">
-        <v>2</v>
-      </c>
-      <c r="C22" s="49">
+        <v>5</v>
+      </c>
+      <c r="C22" s="47">
         <v>1</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="37">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="38"/>
     </row>
@@ -3454,19 +3482,19 @@
         <v>111</v>
       </c>
       <c r="B23" s="35">
+        <v>5</v>
+      </c>
+      <c r="C23" s="47">
+        <v>1</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="37">
         <v>2</v>
-      </c>
-      <c r="C23" s="49">
-        <v>1</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="37">
-        <v>4</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>7</v>
@@ -3478,17 +3506,22 @@
         <v>111</v>
       </c>
       <c r="B24" s="35">
-        <v>2</v>
-      </c>
-      <c r="C24" s="49">
-        <v>1</v>
-      </c>
-      <c r="D24" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="47">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="E24" s="37" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F24" s="37">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>7</v>
       </c>
       <c r="H24" s="38"/>
     </row>
@@ -3497,2771 +3530,2845 @@
         <v>111</v>
       </c>
       <c r="B25" s="35">
-        <v>2</v>
-      </c>
-      <c r="C25" s="49">
-        <v>1</v>
-      </c>
-      <c r="D25" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="C25" s="47">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="E25" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="37">
-        <v>20</v>
-      </c>
-      <c r="H25" s="38"/>
+        <v>34</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="96"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B26" s="35">
-        <v>2</v>
-      </c>
-      <c r="C26" s="49">
-        <v>1</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="47">
+        <v>1</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="35">
+        <v>5</v>
+      </c>
+      <c r="G26" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="38"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B27" s="35">
-        <v>2</v>
-      </c>
-      <c r="C27" s="49">
-        <v>1</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="37">
-        <v>30</v>
-      </c>
-      <c r="H27" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="47">
+        <v>1</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="35">
+        <v>1</v>
+      </c>
+      <c r="G27" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="96"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B28" s="35">
-        <v>3</v>
-      </c>
-      <c r="C28" s="49">
-        <v>1</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="47">
+        <v>1</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="37">
-        <v>2</v>
-      </c>
-      <c r="G28" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="35">
+        <v>1</v>
+      </c>
+      <c r="G28" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="38"/>
+      <c r="H28" s="96"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B29" s="35">
-        <v>3</v>
-      </c>
-      <c r="C29" s="49">
-        <v>1</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="C29" s="96">
+        <v>1</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="37">
-        <v>5</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="38">
-        <v>24</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F29" s="35">
+        <v>7</v>
+      </c>
+      <c r="G29" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="96"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B30" s="35">
-        <v>3</v>
-      </c>
-      <c r="C30" s="49">
-        <v>1</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="37">
-        <v>3</v>
-      </c>
-      <c r="G30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="96">
+        <v>1</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="35">
+        <v>6</v>
+      </c>
+      <c r="G30" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="38"/>
+      <c r="H30" s="96"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B31" s="35">
-        <v>3</v>
-      </c>
-      <c r="C31" s="49">
-        <v>1</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="37">
-        <v>1</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="96">
+        <v>1</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="96"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B32" s="35">
-        <v>3</v>
-      </c>
-      <c r="C32" s="49">
+        <v>6</v>
+      </c>
+      <c r="C32" s="96">
         <v>1</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="37">
-        <v>1</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="38"/>
+        <v>133</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1</v>
+      </c>
+      <c r="G32" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="96"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B33" s="35">
-        <v>3</v>
-      </c>
-      <c r="C33" s="49">
-        <v>1</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="37">
-        <v>1</v>
-      </c>
-      <c r="G33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="38"/>
+      <c r="C33" s="96">
+        <v>1</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="35">
+        <v>4</v>
+      </c>
+      <c r="G33" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="96"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B34" s="35">
-        <v>3</v>
-      </c>
-      <c r="C34" s="49">
-        <v>1</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="37">
-        <v>1</v>
-      </c>
-      <c r="G34" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="38"/>
+      <c r="C34" s="96">
+        <v>1</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="35">
+        <v>6</v>
+      </c>
+      <c r="G34" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="96"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="35">
-        <v>3</v>
-      </c>
-      <c r="C35" s="49">
-        <v>1</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="37">
-        <v>1</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="C35" s="96">
+        <v>1</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="96"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="35">
-        <v>3</v>
-      </c>
-      <c r="C36" s="49">
+        <v>7</v>
+      </c>
+      <c r="C36" s="96">
         <v>1</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="37">
+        <v>133</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="35">
         <v>0.5</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="38"/>
+      <c r="G36" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="96"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="35">
-        <v>3</v>
-      </c>
-      <c r="C37" s="49">
-        <v>1</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="38"/>
+      <c r="C37" s="96">
+        <v>1</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="35">
+        <v>1</v>
+      </c>
+      <c r="G37" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="96"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B38" s="35">
-        <v>3</v>
-      </c>
-      <c r="C38" s="49">
+        <v>8</v>
+      </c>
+      <c r="C38" s="96">
         <v>1</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="37">
-        <v>1</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="F38" s="35">
+        <v>5</v>
+      </c>
+      <c r="G38" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="96"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B39" s="35">
-        <v>3</v>
-      </c>
-      <c r="C39" s="49">
-        <v>1</v>
-      </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="37">
-        <v>22</v>
-      </c>
-      <c r="H39" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="C39" s="96">
+        <v>1</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="35">
+        <v>2</v>
+      </c>
+      <c r="G39" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="96"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B40" s="35">
-        <v>3</v>
-      </c>
-      <c r="C40" s="49">
-        <v>1</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="37">
-        <v>30</v>
-      </c>
-      <c r="H40" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="C40" s="96">
+        <v>1</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="35">
+        <v>1</v>
+      </c>
+      <c r="G40" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="96"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B41" s="35">
-        <v>3</v>
-      </c>
-      <c r="C41" s="49">
-        <v>1</v>
-      </c>
-      <c r="D41" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="C41" s="96">
+        <v>1</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="E41" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="37">
-        <f>31</f>
-        <v>31</v>
-      </c>
-      <c r="H41" s="38"/>
+        <v>44</v>
+      </c>
+      <c r="F41" s="35">
+        <v>12</v>
+      </c>
+      <c r="G41" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="96"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="35">
+        <v>8</v>
+      </c>
+      <c r="C42" s="96">
+        <v>1</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="35">
         <v>4</v>
       </c>
-      <c r="C42" s="49">
-        <v>1</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="37">
-        <v>2</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="38"/>
+      <c r="G42" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="35">
-        <v>4</v>
-      </c>
-      <c r="C43" s="49">
-        <v>1</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="37">
-        <v>3</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="C43" s="96">
+        <v>1</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="35">
+        <v>1</v>
+      </c>
+      <c r="G43" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="96"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="96">
+        <v>9</v>
+      </c>
+      <c r="C44" s="35">
+        <v>1</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="35">
         <v>4</v>
       </c>
-      <c r="C44" s="49">
-        <v>1</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="37">
-        <v>5</v>
-      </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="35">
-        <v>4</v>
-      </c>
-      <c r="C45" s="49">
+      <c r="B45" s="96">
+        <v>9</v>
+      </c>
+      <c r="C45" s="35">
         <v>1</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="37">
-        <v>5</v>
-      </c>
-      <c r="G45" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="35">
+        <v>3</v>
+      </c>
+      <c r="G45" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="96"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="35">
-        <v>4</v>
-      </c>
-      <c r="C46" s="49">
-        <v>1</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="37">
-        <v>1</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="38"/>
+      <c r="B46" s="96">
+        <v>9</v>
+      </c>
+      <c r="C46" s="35">
+        <v>1</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="35">
+        <v>1</v>
+      </c>
+      <c r="G46" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="35">
-        <v>4</v>
-      </c>
-      <c r="C47" s="49">
+      <c r="B47" s="96">
+        <v>9</v>
+      </c>
+      <c r="C47" s="35">
         <v>1</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="37">
-        <v>10</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="38"/>
+        <v>94</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="96"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="35">
-        <v>4</v>
-      </c>
-      <c r="C48" s="49">
-        <v>1</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="37">
-        <v>4</v>
-      </c>
-      <c r="G48" s="35" t="s">
+      <c r="B48" s="96">
+        <v>10</v>
+      </c>
+      <c r="C48" s="35">
+        <v>1</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="35">
+        <v>1</v>
+      </c>
+      <c r="G48" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="38"/>
+      <c r="H48" s="96"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="35">
-        <v>4</v>
-      </c>
-      <c r="C49" s="49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="38"/>
+      <c r="B49" s="96">
+        <v>10</v>
+      </c>
+      <c r="C49" s="35">
+        <v>1</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="35">
+        <v>2</v>
+      </c>
+      <c r="G49" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="96"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="35">
-        <v>4</v>
-      </c>
-      <c r="C50" s="49">
-        <v>1</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>50</v>
+      <c r="B50" s="96">
+        <v>10</v>
+      </c>
+      <c r="C50" s="35">
+        <v>1</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="F50" s="35">
+        <v>1</v>
+      </c>
+      <c r="G50" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="35">
-        <v>4</v>
-      </c>
-      <c r="C51" s="49">
+      <c r="B51" s="96">
+        <v>10</v>
+      </c>
+      <c r="C51" s="35">
         <v>1</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="37">
-        <v>1</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="38"/>
+        <v>98</v>
+      </c>
+      <c r="E51" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="45">
+        <v>1</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="35">
-        <v>4</v>
-      </c>
-      <c r="C52" s="49">
+      <c r="B52" s="45">
+        <v>11</v>
+      </c>
+      <c r="C52" s="45">
         <v>1</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="37">
+        <v>84</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="45">
         <v>2</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G52" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="38"/>
+      <c r="H52" s="45"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="35">
-        <v>4</v>
-      </c>
-      <c r="C53" s="49">
-        <v>1</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="37">
-        <v>20</v>
-      </c>
-      <c r="H53" s="38"/>
+      <c r="B53" s="45">
+        <v>11</v>
+      </c>
+      <c r="C53" s="45">
+        <v>1</v>
+      </c>
+      <c r="D53" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="45"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="35">
-        <v>4</v>
-      </c>
-      <c r="C54" s="49">
-        <v>1</v>
-      </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="37">
-        <f>46</f>
-        <v>46</v>
-      </c>
-      <c r="H54" s="38"/>
+      <c r="B54" s="45">
+        <v>11</v>
+      </c>
+      <c r="C54" s="45">
+        <v>1</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="45">
+        <v>2</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="45"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="35">
-        <v>5</v>
-      </c>
-      <c r="C55" s="49">
-        <v>1</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="37">
-        <v>10</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="38"/>
+      <c r="B55" s="45">
+        <v>11</v>
+      </c>
+      <c r="C55" s="45">
+        <v>1</v>
+      </c>
+      <c r="D55" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="35">
-        <v>5</v>
-      </c>
-      <c r="C56" s="49">
-        <v>1</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="37">
+      <c r="B56" s="45">
+        <v>12</v>
+      </c>
+      <c r="C56" s="45">
+        <v>1</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="45">
         <v>20</v>
       </c>
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="38"/>
+      <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="35">
-        <v>5</v>
-      </c>
-      <c r="C57" s="49">
+      <c r="B57" s="45">
+        <v>12</v>
+      </c>
+      <c r="C57" s="45">
         <v>1</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="37">
-        <v>8</v>
-      </c>
-      <c r="G57" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="45">
+        <v>1</v>
+      </c>
+      <c r="G57" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="38"/>
+      <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="35">
-        <v>5</v>
-      </c>
-      <c r="C58" s="49">
-        <v>1</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="37">
-        <v>3</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="38"/>
+      <c r="B58" s="45">
+        <v>12</v>
+      </c>
+      <c r="C58" s="45">
+        <v>1</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="45">
+        <v>14</v>
+      </c>
+      <c r="G58" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="97"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="35">
-        <v>5</v>
-      </c>
-      <c r="C59" s="49">
+      <c r="B59" s="45">
+        <v>12</v>
+      </c>
+      <c r="C59" s="45">
         <v>1</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="37">
-        <v>2</v>
-      </c>
-      <c r="G59" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="45">
+        <v>1</v>
+      </c>
+      <c r="G59" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="38"/>
+      <c r="H59" s="97"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="35">
-        <v>5</v>
-      </c>
-      <c r="C60" s="49">
-        <v>1</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="37">
-        <v>1</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="38"/>
+      <c r="B60" s="45">
+        <v>12</v>
+      </c>
+      <c r="C60" s="45">
+        <v>1</v>
+      </c>
+      <c r="D60" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="97"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="35">
-        <v>5</v>
-      </c>
-      <c r="C61" s="49">
-        <v>1</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="37">
-        <v>10</v>
-      </c>
-      <c r="G61" s="35" t="s">
+      <c r="B61" s="45">
+        <v>12</v>
+      </c>
+      <c r="C61" s="45">
+        <v>1</v>
+      </c>
+      <c r="D61" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="45">
+        <v>1</v>
+      </c>
+      <c r="G61" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H61" s="38"/>
+      <c r="H61" s="97"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="35">
-        <v>5</v>
-      </c>
-      <c r="C62" s="49">
-        <v>1</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G62" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="98"/>
+      <c r="B62" s="45">
+        <v>13</v>
+      </c>
+      <c r="C62" s="97">
+        <v>1</v>
+      </c>
+      <c r="D62" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="45">
+        <v>7</v>
+      </c>
+      <c r="G62" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="97"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="35">
-        <v>5</v>
-      </c>
-      <c r="C63" s="49">
+      <c r="B63" s="45">
+        <v>13</v>
+      </c>
+      <c r="C63" s="97">
         <v>1</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G63" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="98"/>
+        <v>91</v>
+      </c>
+      <c r="F63" s="45">
+        <v>1</v>
+      </c>
+      <c r="G63" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="97"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="35">
-        <v>5</v>
-      </c>
-      <c r="C64" s="49">
-        <v>1</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G64" s="98" t="s">
+      <c r="B64" s="45">
+        <v>13</v>
+      </c>
+      <c r="C64" s="97">
+        <v>1</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="45">
+        <v>1</v>
+      </c>
+      <c r="G64" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="98"/>
+      <c r="H64" s="97"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="35">
-        <v>5</v>
-      </c>
-      <c r="C65" s="49">
+      <c r="B65" s="45">
+        <v>13</v>
+      </c>
+      <c r="C65" s="97">
         <v>1</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="98"/>
+        <v>43</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="45">
+        <v>1</v>
+      </c>
+      <c r="G65" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="97"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="35">
-        <v>5</v>
-      </c>
-      <c r="C66" s="49">
-        <v>1</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G66" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" s="98"/>
+      <c r="B66" s="45">
+        <v>13</v>
+      </c>
+      <c r="C66" s="97">
+        <v>1</v>
+      </c>
+      <c r="D66" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="45">
+        <v>1</v>
+      </c>
+      <c r="G66" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="97"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="35">
-        <v>5</v>
-      </c>
-      <c r="C67" s="49">
+      <c r="B67" s="45">
+        <v>13</v>
+      </c>
+      <c r="C67" s="97">
         <v>1</v>
       </c>
       <c r="D67" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="35">
-        <v>1</v>
-      </c>
-      <c r="G67" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="98"/>
+        <v>94</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="45">
+        <v>1</v>
+      </c>
+      <c r="G67" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="97"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="35">
-        <v>5</v>
-      </c>
-      <c r="C68" s="49">
-        <v>1</v>
-      </c>
-      <c r="D68" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F68" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G68" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="98"/>
+      <c r="B68" s="45">
+        <v>13</v>
+      </c>
+      <c r="C68" s="97">
+        <v>1</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="45">
+        <v>1</v>
+      </c>
+      <c r="G68" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="97"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B69" s="35">
-        <v>5</v>
-      </c>
-      <c r="C69" s="49">
+      <c r="B69" s="97">
+        <v>14</v>
+      </c>
+      <c r="C69" s="97">
         <v>1</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="35">
-        <v>5</v>
-      </c>
-      <c r="G69" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="45">
+        <v>3</v>
+      </c>
+      <c r="G69" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H69" s="98"/>
+      <c r="H69" s="97"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="35">
-        <v>5</v>
-      </c>
-      <c r="C70" s="49">
-        <v>1</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" s="35">
-        <v>1</v>
-      </c>
-      <c r="G70" s="98" t="s">
+      <c r="B70" s="97">
+        <v>14</v>
+      </c>
+      <c r="C70" s="97">
+        <v>1</v>
+      </c>
+      <c r="D70" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="45">
+        <v>4</v>
+      </c>
+      <c r="G70" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H70" s="98"/>
+      <c r="H70" s="97"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="35">
-        <v>5</v>
-      </c>
-      <c r="C71" s="49">
+      <c r="B71" s="97">
+        <v>14</v>
+      </c>
+      <c r="C71" s="97">
         <v>1</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="35">
-        <v>5</v>
-      </c>
-      <c r="G71" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="98"/>
+        <v>84</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="45">
+        <v>3</v>
+      </c>
+      <c r="G71" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="97"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="35">
-        <v>5</v>
-      </c>
-      <c r="C72" s="49">
-        <v>1</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>133</v>
+      <c r="B72" s="97">
+        <v>14</v>
+      </c>
+      <c r="C72" s="97">
+        <v>1</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="35">
-        <v>1</v>
-      </c>
-      <c r="G72" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="45">
+        <v>10</v>
+      </c>
+      <c r="G72" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="98"/>
+      <c r="H72" s="97"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="35">
-        <v>5</v>
-      </c>
-      <c r="C73" s="49">
-        <v>1</v>
-      </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F73" s="35">
-        <v>30</v>
-      </c>
-      <c r="G73" s="98"/>
-      <c r="H73" s="98"/>
+      <c r="B73" s="97">
+        <v>14</v>
+      </c>
+      <c r="C73" s="97">
+        <v>1</v>
+      </c>
+      <c r="D73" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="45">
+        <v>1</v>
+      </c>
+      <c r="G73" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="97"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="35">
-        <v>6</v>
-      </c>
-      <c r="C74" s="98">
+      <c r="B74" s="97">
+        <v>14</v>
+      </c>
+      <c r="C74" s="97">
         <v>1</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="35">
-        <v>16</v>
-      </c>
-      <c r="G74" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="98"/>
+        <v>86</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="45">
+        <v>1</v>
+      </c>
+      <c r="G74" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="97"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="35">
-        <v>6</v>
-      </c>
-      <c r="C75" s="98">
-        <v>1</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="35">
+      <c r="B75" s="97">
+        <v>15</v>
+      </c>
+      <c r="C75" s="97">
+        <v>1</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="45">
+        <v>37</v>
+      </c>
+      <c r="G75" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="98"/>
+      <c r="H75" s="97"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="35">
-        <v>6</v>
-      </c>
-      <c r="C76" s="98">
-        <v>1</v>
-      </c>
-      <c r="D76" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" s="35">
-        <v>6</v>
-      </c>
-      <c r="G76" s="98" t="s">
+      <c r="B76" s="45">
+        <v>15</v>
+      </c>
+      <c r="C76" s="97">
+        <v>1</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="45">
+        <v>5</v>
+      </c>
+      <c r="G76" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="98"/>
+      <c r="H76" s="97"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="35">
-        <v>6</v>
-      </c>
-      <c r="C77" s="98">
-        <v>1</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" s="35">
-        <v>4</v>
-      </c>
-      <c r="G77" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="98"/>
+      <c r="B77" s="97">
+        <v>15</v>
+      </c>
+      <c r="C77" s="97">
+        <v>1</v>
+      </c>
+      <c r="D77" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="45">
+        <v>2</v>
+      </c>
+      <c r="G77" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="97"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="35">
-        <v>6</v>
-      </c>
-      <c r="C78" s="98">
-        <v>1</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G78" s="98" t="s">
+      <c r="B78" s="97">
+        <v>15</v>
+      </c>
+      <c r="C78" s="97">
+        <v>1</v>
+      </c>
+      <c r="D78" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="45">
+        <v>3</v>
+      </c>
+      <c r="G78" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H78" s="98"/>
+      <c r="H78" s="97"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="35">
-        <v>6</v>
-      </c>
-      <c r="C79" s="98">
+      <c r="B79" s="45">
+        <v>15</v>
+      </c>
+      <c r="C79" s="97">
         <v>1</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="35">
-        <v>1</v>
-      </c>
-      <c r="G79" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="98"/>
+        <v>44</v>
+      </c>
+      <c r="F79" s="45">
+        <v>5</v>
+      </c>
+      <c r="G79" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="97"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="35">
-        <v>6</v>
-      </c>
-      <c r="C80" s="98">
+      <c r="B80" s="45">
+        <v>15</v>
+      </c>
+      <c r="C80" s="97">
         <v>1</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" s="35">
-        <v>1</v>
-      </c>
-      <c r="G80" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="45">
+        <v>1</v>
+      </c>
+      <c r="G80" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="98"/>
+      <c r="H80" s="97"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="35">
-        <v>6</v>
-      </c>
-      <c r="C81" s="98">
-        <v>1</v>
-      </c>
-      <c r="D81" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" s="35">
-        <v>5</v>
-      </c>
-      <c r="G81" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="98"/>
+      <c r="B81" s="45">
+        <v>15</v>
+      </c>
+      <c r="C81" s="97">
+        <v>1</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="45">
+        <v>2</v>
+      </c>
+      <c r="G81" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="97"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="35">
-        <v>6</v>
-      </c>
-      <c r="C82" s="98">
+      <c r="B82" s="97">
+        <v>15</v>
+      </c>
+      <c r="C82" s="97">
         <v>1</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F82" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G82" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="98"/>
+        <v>133</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="45">
+        <v>2</v>
+      </c>
+      <c r="G82" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="97"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B83" s="35">
-        <v>6</v>
-      </c>
-      <c r="C83" s="98">
+        <v>2</v>
+      </c>
+      <c r="C83" s="47">
         <v>1</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E83" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="35">
-        <v>4</v>
-      </c>
-      <c r="G83" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="98"/>
+        <v>55</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="37">
+        <v>3</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="38"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B84" s="35">
-        <v>6</v>
-      </c>
-      <c r="C84" s="98">
-        <v>1</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F84" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G84" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H84" s="98"/>
+        <v>3</v>
+      </c>
+      <c r="C84" s="47">
+        <v>1</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="37">
+        <v>1</v>
+      </c>
+      <c r="G84" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="38"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B85" s="35">
-        <v>6</v>
-      </c>
-      <c r="C85" s="98">
-        <v>1</v>
-      </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F85" s="35">
-        <v>30</v>
-      </c>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
+        <v>4</v>
+      </c>
+      <c r="C85" s="47">
+        <v>1</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" s="37">
+        <v>2</v>
+      </c>
+      <c r="G85" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B86" s="35">
-        <v>6</v>
-      </c>
-      <c r="C86" s="98">
-        <v>1</v>
-      </c>
-      <c r="D86" s="36"/>
-      <c r="E86" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F86" s="35">
-        <f>25</f>
-        <v>25</v>
-      </c>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
+        <v>4</v>
+      </c>
+      <c r="C86" s="47">
+        <v>1</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="37">
+        <v>10</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="38"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B87" s="35">
-        <v>7</v>
-      </c>
-      <c r="C87" s="98">
-        <v>1</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="C87" s="47">
+        <v>1</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="F87" s="35">
-        <v>6</v>
-      </c>
-      <c r="G87" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="98"/>
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="96"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B88" s="35">
-        <v>7</v>
-      </c>
-      <c r="C88" s="98">
-        <v>1</v>
-      </c>
-      <c r="D88" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>87</v>
+        <v>8</v>
+      </c>
+      <c r="C88" s="96">
+        <v>1</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="F88" s="35">
-        <v>2</v>
-      </c>
-      <c r="G88" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" s="98"/>
+        <v>4</v>
+      </c>
+      <c r="G88" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="96"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="35">
-        <v>7</v>
-      </c>
-      <c r="C89" s="98">
-        <v>1</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E89" s="39" t="s">
-        <v>66</v>
+      <c r="B89" s="96">
+        <v>9</v>
+      </c>
+      <c r="C89" s="35">
+        <v>1</v>
+      </c>
+      <c r="D89" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="F89" s="35">
-        <v>1</v>
-      </c>
-      <c r="G89" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="98"/>
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="96"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="35">
-        <v>7</v>
-      </c>
-      <c r="C90" s="98">
+      <c r="B90" s="96">
+        <v>10</v>
+      </c>
+      <c r="C90" s="35">
         <v>1</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="F90" s="35">
-        <v>1</v>
-      </c>
-      <c r="G90" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H90" s="98"/>
+        <v>2</v>
+      </c>
+      <c r="G90" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="96"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="35">
-        <v>7</v>
-      </c>
-      <c r="C91" s="98">
-        <v>1</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F91" s="35">
-        <v>1</v>
-      </c>
-      <c r="G91" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="98"/>
+      <c r="B91" s="45">
+        <v>12</v>
+      </c>
+      <c r="C91" s="45">
+        <v>1</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="45">
+        <v>1</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H91" s="45"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="35">
-        <v>7</v>
-      </c>
-      <c r="C92" s="98">
-        <v>1</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G92" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="98"/>
+      <c r="B92" s="45">
+        <v>12</v>
+      </c>
+      <c r="C92" s="45">
+        <v>1</v>
+      </c>
+      <c r="D92" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" s="45">
+        <v>1</v>
+      </c>
+      <c r="G92" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="97"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="35">
-        <v>7</v>
-      </c>
-      <c r="C93" s="98">
-        <v>1</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" s="35">
-        <v>1</v>
-      </c>
-      <c r="G93" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H93" s="98"/>
+      <c r="B93" s="45">
+        <v>12</v>
+      </c>
+      <c r="C93" s="45">
+        <v>1</v>
+      </c>
+      <c r="D93" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="97"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="98">
-        <v>7</v>
-      </c>
-      <c r="C94" s="98">
-        <v>1</v>
-      </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F94" s="35">
-        <v>24</v>
-      </c>
-      <c r="G94" s="98"/>
-      <c r="H94" s="98"/>
+      <c r="B94" s="45">
+        <v>14</v>
+      </c>
+      <c r="C94" s="97">
+        <v>1</v>
+      </c>
+      <c r="D94" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94" s="45">
+        <v>1</v>
+      </c>
+      <c r="G94" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="97"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="35">
-        <v>7</v>
-      </c>
-      <c r="C95" s="98">
-        <v>1</v>
-      </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F95" s="35">
+      <c r="B95" s="45">
+        <v>14</v>
+      </c>
+      <c r="C95" s="97">
+        <v>1</v>
+      </c>
+      <c r="D95" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G95" s="98"/>
-      <c r="H95" s="98"/>
+      <c r="E95" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" s="45">
+        <v>1</v>
+      </c>
+      <c r="G95" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="97"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="35">
-        <v>8</v>
-      </c>
-      <c r="C96" s="98">
-        <v>1</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F96" s="35">
-        <v>2</v>
-      </c>
-      <c r="G96" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H96" s="98"/>
+      <c r="B96" s="97">
+        <v>15</v>
+      </c>
+      <c r="C96" s="97">
+        <v>1</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" s="45">
+        <v>1</v>
+      </c>
+      <c r="G96" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="97"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="35">
-        <v>8</v>
-      </c>
-      <c r="C97" s="98">
-        <v>1</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E97" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F97" s="35">
-        <v>4</v>
-      </c>
-      <c r="G97" s="98" t="s">
+      <c r="B97" s="45">
+        <v>15</v>
+      </c>
+      <c r="C97" s="97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G97" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="H97" s="98"/>
+      <c r="H97" s="97"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="35">
-        <v>8</v>
-      </c>
-      <c r="C98" s="98">
+      <c r="B98" s="39">
+        <v>1</v>
+      </c>
+      <c r="C98" s="124">
         <v>1</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F98" s="35">
+        <v>40</v>
+      </c>
+      <c r="F98" s="37">
         <v>5</v>
       </c>
-      <c r="G98" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="98"/>
+      <c r="G98" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="38">
+        <v>27</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B99" s="35">
-        <v>8</v>
-      </c>
-      <c r="C99" s="98">
-        <v>1</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F99" s="35">
-        <v>2</v>
-      </c>
-      <c r="G99" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="98"/>
+        <v>1</v>
+      </c>
+      <c r="C99" s="47">
+        <v>1</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" s="37">
+        <v>1</v>
+      </c>
+      <c r="G99" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="38"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="35">
-        <v>8</v>
-      </c>
-      <c r="C100" s="98">
+      <c r="B100" s="39">
+        <v>1</v>
+      </c>
+      <c r="C100" s="124">
         <v>1</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F100" s="35">
-        <v>8</v>
-      </c>
-      <c r="G100" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="37">
+        <v>3</v>
+      </c>
+      <c r="G100" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H100" s="98"/>
+      <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="35">
-        <v>8</v>
-      </c>
-      <c r="C101" s="98">
-        <v>1</v>
-      </c>
-      <c r="D101" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E101" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F101" s="35">
-        <v>7</v>
-      </c>
-      <c r="G101" s="98" t="s">
+      <c r="B101" s="39">
+        <v>1</v>
+      </c>
+      <c r="C101" s="124">
+        <v>1</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" s="37">
+        <v>2</v>
+      </c>
+      <c r="G101" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="98"/>
+      <c r="H101" s="38"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B102" s="35">
-        <v>8</v>
-      </c>
-      <c r="C102" s="98">
-        <v>1</v>
-      </c>
-      <c r="D102" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" s="35">
-        <v>1</v>
-      </c>
-      <c r="G102" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H102" s="98"/>
+        <v>1</v>
+      </c>
+      <c r="C102" s="47">
+        <v>1</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G102" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B103" s="35">
-        <v>8</v>
-      </c>
-      <c r="C103" s="98">
-        <v>1</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" s="35">
-        <v>12</v>
-      </c>
-      <c r="G103" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="98"/>
+        <v>2</v>
+      </c>
+      <c r="C103" s="47">
+        <v>1</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="37">
+        <v>3</v>
+      </c>
+      <c r="G103" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="38"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="35">
-        <v>8</v>
-      </c>
-      <c r="C104" s="98">
-        <v>1</v>
-      </c>
-      <c r="D104" s="36" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="C104" s="47">
+        <v>1</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F104" s="35">
-        <v>7</v>
-      </c>
-      <c r="G104" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" s="37">
+        <v>1</v>
+      </c>
+      <c r="G104" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="98"/>
+      <c r="H104" s="38"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B105" s="35">
-        <v>8</v>
-      </c>
-      <c r="C105" s="98">
+        <v>2</v>
+      </c>
+      <c r="C105" s="47">
         <v>1</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F105" s="35">
-        <v>4</v>
-      </c>
-      <c r="G105" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="98"/>
+        <v>53</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G105" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="38"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B106" s="35">
-        <v>8</v>
-      </c>
-      <c r="C106" s="98">
-        <v>1</v>
-      </c>
-      <c r="D106" s="41" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C106" s="47">
+        <v>1</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="35">
+        <v>46</v>
+      </c>
+      <c r="F106" s="37">
         <v>3</v>
       </c>
-      <c r="G106" s="98" t="s">
+      <c r="G106" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H106" s="98"/>
+      <c r="H106" s="38"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B107" s="35">
-        <v>8</v>
-      </c>
-      <c r="C107" s="98">
-        <v>1</v>
-      </c>
-      <c r="D107" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E107" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F107" s="35">
-        <v>1</v>
-      </c>
-      <c r="G107" s="98"/>
-      <c r="H107" s="98"/>
+        <v>2</v>
+      </c>
+      <c r="C107" s="47">
+        <v>1</v>
+      </c>
+      <c r="D107" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="37">
+        <v>2</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="38"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="35">
-        <v>8</v>
-      </c>
-      <c r="C108" s="98">
-        <v>1</v>
-      </c>
-      <c r="D108" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F108" s="35">
-        <v>1</v>
-      </c>
-      <c r="G108" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H108" s="98"/>
+        <v>3</v>
+      </c>
+      <c r="C108" s="47">
+        <v>1</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" s="37">
+        <v>5</v>
+      </c>
+      <c r="G108" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="38">
+        <v>24</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B109" s="35">
-        <v>8</v>
-      </c>
-      <c r="C109" s="98">
-        <v>1</v>
-      </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="35">
-        <v>25</v>
-      </c>
-      <c r="G109" s="98"/>
-      <c r="H109" s="98"/>
+        <v>3</v>
+      </c>
+      <c r="C109" s="47">
+        <v>1</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="37">
+        <v>1</v>
+      </c>
+      <c r="G109" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B110" s="35">
-        <v>8</v>
-      </c>
-      <c r="C110" s="98">
-        <v>1</v>
-      </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F110" s="35">
-        <v>18</v>
-      </c>
-      <c r="G110" s="98"/>
-      <c r="H110" s="98"/>
+        <v>3</v>
+      </c>
+      <c r="C110" s="47">
+        <v>1</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="37">
+        <v>1</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="38"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="98">
-        <v>9</v>
-      </c>
-      <c r="C111" s="35">
+      <c r="B111" s="35">
+        <v>3</v>
+      </c>
+      <c r="C111" s="47">
         <v>1</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E111" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F111" s="35">
-        <v>4</v>
-      </c>
-      <c r="G111" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F111" s="37">
+        <v>1</v>
+      </c>
+      <c r="G111" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="98"/>
+      <c r="H111" s="38"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="98">
-        <v>9</v>
-      </c>
-      <c r="C112" s="35">
+      <c r="B112" s="35">
+        <v>3</v>
+      </c>
+      <c r="C112" s="47">
         <v>1</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E112" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F112" s="35">
-        <v>4</v>
-      </c>
-      <c r="G112" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H112" s="98"/>
+        <v>68</v>
+      </c>
+      <c r="F112" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G112" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="38"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="98">
-        <v>9</v>
-      </c>
-      <c r="C113" s="35">
+      <c r="B113" s="35">
+        <v>3</v>
+      </c>
+      <c r="C113" s="47">
         <v>1</v>
       </c>
       <c r="D113" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E113" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F113" s="35">
-        <v>3</v>
-      </c>
-      <c r="G113" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113" s="98"/>
+        <v>39</v>
+      </c>
+      <c r="E113" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="37">
+        <v>1</v>
+      </c>
+      <c r="G113" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="38"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="98">
-        <v>9</v>
-      </c>
-      <c r="C114" s="35">
+      <c r="B114" s="35">
+        <v>4</v>
+      </c>
+      <c r="C114" s="47">
         <v>1</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" s="35">
-        <v>1</v>
-      </c>
-      <c r="G114" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H114" s="98"/>
+        <v>45</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="37">
+        <v>3</v>
+      </c>
+      <c r="G114" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="38"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="98">
-        <v>9</v>
-      </c>
-      <c r="C115" s="35">
-        <v>1</v>
-      </c>
-      <c r="D115" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E115" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F115" s="35">
-        <v>1</v>
-      </c>
-      <c r="G115" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="H115" s="98"/>
+      <c r="B115" s="35">
+        <v>4</v>
+      </c>
+      <c r="C115" s="47">
+        <v>1</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="37">
+        <v>1</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="38"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="98">
-        <v>9</v>
-      </c>
-      <c r="C116" s="35">
+      <c r="B116" s="35">
+        <v>4</v>
+      </c>
+      <c r="C116" s="47">
         <v>1</v>
       </c>
       <c r="D116" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F116" s="35">
-        <v>2</v>
-      </c>
-      <c r="G116" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F116" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G116" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="98"/>
+      <c r="H116" s="38"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B117" s="98">
-        <v>9</v>
-      </c>
-      <c r="C117" s="35">
-        <v>1</v>
-      </c>
-      <c r="D117" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E117" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F117" s="35">
-        <v>1</v>
-      </c>
-      <c r="G117" s="98" t="s">
+      <c r="B117" s="35">
+        <v>4</v>
+      </c>
+      <c r="C117" s="47">
+        <v>1</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F117" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G117" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H117" s="98"/>
+      <c r="H117" s="38"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="98">
-        <v>9</v>
-      </c>
-      <c r="C118" s="35">
-        <v>1</v>
-      </c>
-      <c r="D118" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E118" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F118" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G118" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="H118" s="98"/>
+      <c r="B118" s="35">
+        <v>4</v>
+      </c>
+      <c r="C118" s="47">
+        <v>1</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" s="37">
+        <v>1</v>
+      </c>
+      <c r="G118" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="38"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="98">
-        <v>9</v>
-      </c>
-      <c r="C119" s="35">
-        <v>1</v>
-      </c>
-      <c r="D119" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E119" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F119" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G119" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" s="98"/>
+      <c r="B119" s="35">
+        <v>5</v>
+      </c>
+      <c r="C119" s="47">
+        <v>1</v>
+      </c>
+      <c r="D119" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F119" s="37">
+        <v>10</v>
+      </c>
+      <c r="G119" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="38"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="98">
-        <v>9</v>
-      </c>
-      <c r="C120" s="98">
-        <v>1</v>
-      </c>
-      <c r="D120" s="36"/>
-      <c r="E120" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F120" s="35">
-        <v>83</v>
-      </c>
-      <c r="G120" s="98"/>
-      <c r="H120" s="98"/>
+      <c r="B120" s="35">
+        <v>5</v>
+      </c>
+      <c r="C120" s="47">
+        <v>1</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F120" s="37">
+        <v>3</v>
+      </c>
+      <c r="G120" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="38"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="98">
-        <v>10</v>
-      </c>
-      <c r="C121" s="35">
+      <c r="B121" s="35">
+        <v>5</v>
+      </c>
+      <c r="C121" s="47">
         <v>1</v>
       </c>
       <c r="D121" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E121" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F121" s="35">
-        <v>2</v>
-      </c>
-      <c r="G121" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="H121" s="98"/>
+        <v>53</v>
+      </c>
+      <c r="E121" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F121" s="37">
+        <v>1</v>
+      </c>
+      <c r="G121" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="38"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B122" s="98">
-        <v>10</v>
-      </c>
-      <c r="C122" s="35">
+      <c r="B122" s="35">
+        <v>5</v>
+      </c>
+      <c r="C122" s="47">
         <v>1</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E122" s="37" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="E122" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="F122" s="35">
-        <v>4</v>
-      </c>
-      <c r="G122" s="98" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="G122" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H122" s="98"/>
+      <c r="H122" s="96"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B123" s="98">
-        <v>10</v>
-      </c>
-      <c r="C123" s="35">
+      <c r="B123" s="35">
+        <v>5</v>
+      </c>
+      <c r="C123" s="47">
         <v>1</v>
       </c>
       <c r="D123" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E123" s="37" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="E123" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="F123" s="35">
-        <v>3</v>
-      </c>
-      <c r="G123" s="98" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="G123" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H123" s="98"/>
+      <c r="H123" s="96"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B124" s="98">
-        <v>10</v>
-      </c>
-      <c r="C124" s="35">
-        <v>1</v>
-      </c>
-      <c r="D124" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E124" s="100" t="s">
-        <v>126</v>
+      <c r="B124" s="35">
+        <v>5</v>
+      </c>
+      <c r="C124" s="47">
+        <v>1</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" s="130" t="s">
+        <v>128</v>
       </c>
       <c r="F124" s="35">
-        <v>7</v>
-      </c>
-      <c r="G124" s="98" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="G124" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="98"/>
+      <c r="H124" s="96"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B125" s="98">
-        <v>10</v>
-      </c>
-      <c r="C125" s="35">
-        <v>1</v>
-      </c>
-      <c r="D125" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E125" s="35" t="s">
-        <v>95</v>
+      <c r="B125" s="35">
+        <v>5</v>
+      </c>
+      <c r="C125" s="47">
+        <v>1</v>
+      </c>
+      <c r="D125" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="F125" s="35">
         <v>1</v>
       </c>
-      <c r="G125" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H125" s="98"/>
+      <c r="G125" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="96"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B126" s="98">
-        <v>10</v>
-      </c>
-      <c r="C126" s="35">
-        <v>1</v>
-      </c>
-      <c r="D126" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E126" s="35" t="s">
-        <v>34</v>
+      <c r="B126" s="35">
+        <v>5</v>
+      </c>
+      <c r="C126" s="47">
+        <v>1</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E126" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="F126" s="35">
-        <v>2</v>
-      </c>
-      <c r="G126" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" s="98"/>
+        <v>5</v>
+      </c>
+      <c r="G126" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="96"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="98">
-        <v>10</v>
-      </c>
-      <c r="C127" s="35">
+      <c r="B127" s="35">
+        <v>6</v>
+      </c>
+      <c r="C127" s="96">
         <v>1</v>
       </c>
       <c r="D127" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E127" s="39" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="E127" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="F127" s="35">
-        <v>1</v>
-      </c>
-      <c r="G127" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H127" s="98"/>
+      <c r="H127" s="96"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B128" s="98">
-        <v>10</v>
-      </c>
-      <c r="C128" s="35">
-        <v>1</v>
-      </c>
-      <c r="D128" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E128" s="35" t="s">
-        <v>66</v>
+      <c r="B128" s="35">
+        <v>6</v>
+      </c>
+      <c r="C128" s="96">
+        <v>1</v>
+      </c>
+      <c r="D128" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="F128" s="35">
-        <v>1</v>
-      </c>
-      <c r="G128" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="98"/>
+      <c r="H128" s="96"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B129" s="98">
-        <v>10</v>
-      </c>
-      <c r="C129" s="35">
-        <v>1</v>
-      </c>
-      <c r="D129" s="41" t="s">
-        <v>133</v>
+      <c r="B129" s="35">
+        <v>6</v>
+      </c>
+      <c r="C129" s="96">
+        <v>1</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="E129" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F129" s="35">
         <v>1</v>
       </c>
-      <c r="G129" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="98"/>
+      <c r="G129" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" s="96"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="98">
-        <v>10</v>
-      </c>
-      <c r="C130" s="35">
+      <c r="B130" s="35">
+        <v>6</v>
+      </c>
+      <c r="C130" s="96">
         <v>1</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E130" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F130" s="45">
-        <v>1</v>
-      </c>
-      <c r="G130" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H130" s="45"/>
+        <v>81</v>
+      </c>
+      <c r="F130" s="35">
+        <v>5</v>
+      </c>
+      <c r="G130" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="96"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B131" s="98">
-        <v>10</v>
-      </c>
-      <c r="C131" s="35">
-        <v>1</v>
-      </c>
-      <c r="D131" s="101"/>
-      <c r="E131" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F131" s="45">
-        <v>77</v>
-      </c>
-      <c r="G131" s="45"/>
-      <c r="H131" s="45"/>
+      <c r="B131" s="35">
+        <v>6</v>
+      </c>
+      <c r="C131" s="96">
+        <v>1</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F131" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G131" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="96"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B132" s="45">
-        <v>11</v>
-      </c>
-      <c r="C132" s="45">
-        <v>1</v>
-      </c>
-      <c r="D132" s="41" t="s">
-        <v>84</v>
+      <c r="B132" s="35">
+        <v>6</v>
+      </c>
+      <c r="C132" s="96">
+        <v>1</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F132" s="45">
-        <v>2</v>
-      </c>
-      <c r="G132" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="45"/>
+        <v>51</v>
+      </c>
+      <c r="F132" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G132" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="96"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="45">
-        <v>11</v>
-      </c>
-      <c r="C133" s="45">
-        <v>1</v>
-      </c>
-      <c r="D133" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E133" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F133" s="45">
-        <v>1</v>
-      </c>
-      <c r="G133" s="45" t="s">
+      <c r="B133" s="35">
+        <v>7</v>
+      </c>
+      <c r="C133" s="96">
+        <v>1</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E133" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="35">
+        <v>1</v>
+      </c>
+      <c r="G133" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H133" s="45"/>
+      <c r="H133" s="96"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B134" s="45">
-        <v>11</v>
-      </c>
-      <c r="C134" s="45">
-        <v>1</v>
-      </c>
-      <c r="D134" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="E134" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F134" s="45">
-        <v>2</v>
-      </c>
-      <c r="G134" s="45" t="s">
+      <c r="B134" s="35">
+        <v>7</v>
+      </c>
+      <c r="C134" s="96">
+        <v>1</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F134" s="35">
+        <v>1</v>
+      </c>
+      <c r="G134" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H134" s="45"/>
+      <c r="H134" s="96"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="45">
-        <v>11</v>
-      </c>
-      <c r="C135" s="45">
-        <v>1</v>
-      </c>
-      <c r="D135" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="E135" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F135" s="45">
-        <v>5</v>
-      </c>
-      <c r="G135" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="H135" s="45"/>
+      <c r="B135" s="35">
+        <v>7</v>
+      </c>
+      <c r="C135" s="96">
+        <v>1</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E135" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F135" s="35">
+        <v>1</v>
+      </c>
+      <c r="G135" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H135" s="96"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B136" s="45">
-        <v>11</v>
-      </c>
-      <c r="C136" s="45">
-        <v>1</v>
-      </c>
-      <c r="D136" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="E136" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F136" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G136" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H136" s="45"/>
+      <c r="B136" s="35">
+        <v>8</v>
+      </c>
+      <c r="C136" s="96">
+        <v>1</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F136" s="35">
+        <v>2</v>
+      </c>
+      <c r="G136" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="96"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="45">
-        <v>11</v>
-      </c>
-      <c r="C137" s="45">
-        <v>1</v>
-      </c>
-      <c r="D137" s="47" t="s">
-        <v>94</v>
+      <c r="B137" s="35">
+        <v>8</v>
+      </c>
+      <c r="C137" s="96">
+        <v>1</v>
+      </c>
+      <c r="D137" s="126" t="s">
+        <v>80</v>
       </c>
       <c r="E137" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F137" s="45">
-        <v>2</v>
-      </c>
-      <c r="G137" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H137" s="45"/>
+        <v>81</v>
+      </c>
+      <c r="F137" s="35">
+        <v>8</v>
+      </c>
+      <c r="G137" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" s="96"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B138" s="45">
-        <v>11</v>
-      </c>
-      <c r="C138" s="45">
-        <v>1</v>
-      </c>
-      <c r="D138" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E138" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F138" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G138" s="45" t="s">
+      <c r="B138" s="35">
+        <v>8</v>
+      </c>
+      <c r="C138" s="96">
+        <v>1</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E138" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F138" s="35">
         <v>7</v>
       </c>
-      <c r="H138" s="45"/>
+      <c r="G138" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" s="96"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B139" s="45">
-        <v>11</v>
-      </c>
-      <c r="C139" s="45">
-        <v>1</v>
-      </c>
-      <c r="D139" s="101"/>
-      <c r="E139" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F139" s="45">
-        <v>87</v>
-      </c>
-      <c r="G139" s="45"/>
-      <c r="H139" s="45"/>
+      <c r="B139" s="35">
+        <v>8</v>
+      </c>
+      <c r="C139" s="96">
+        <v>1</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E139" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" s="35">
+        <v>7</v>
+      </c>
+      <c r="G139" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="96"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B140" s="45">
-        <v>12</v>
-      </c>
-      <c r="C140" s="45">
-        <v>1</v>
-      </c>
-      <c r="D140" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E140" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F140" s="45">
-        <v>1</v>
-      </c>
-      <c r="G140" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="H140" s="45"/>
+      <c r="B140" s="35">
+        <v>8</v>
+      </c>
+      <c r="C140" s="96">
+        <v>1</v>
+      </c>
+      <c r="D140" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" s="35">
+        <v>3</v>
+      </c>
+      <c r="G140" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="96"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B141" s="45">
-        <v>12</v>
-      </c>
-      <c r="C141" s="45">
-        <v>1</v>
-      </c>
-      <c r="D141" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E141" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F141" s="45">
-        <v>10</v>
-      </c>
-      <c r="G141" s="45" t="s">
+      <c r="B141" s="96">
+        <v>9</v>
+      </c>
+      <c r="C141" s="35">
+        <v>1</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" s="35">
+        <v>4</v>
+      </c>
+      <c r="G141" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H141" s="45">
-        <v>43</v>
-      </c>
+      <c r="H141" s="96"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B142" s="45">
-        <v>12</v>
-      </c>
-      <c r="C142" s="45">
-        <v>1</v>
-      </c>
-      <c r="D142" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E142" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F142" s="45">
-        <v>20</v>
-      </c>
-      <c r="G142" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H142" s="45"/>
+      <c r="B142" s="96">
+        <v>9</v>
+      </c>
+      <c r="C142" s="35">
+        <v>1</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F142" s="35">
+        <v>2</v>
+      </c>
+      <c r="G142" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H142" s="96"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B143" s="45">
-        <v>12</v>
-      </c>
-      <c r="C143" s="45">
+      <c r="B143" s="96">
+        <v>9</v>
+      </c>
+      <c r="C143" s="35">
         <v>1</v>
       </c>
       <c r="D143" s="41" t="s">
@@ -6270,183 +6377,181 @@
       <c r="E143" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F143" s="45">
-        <v>5</v>
-      </c>
-      <c r="G143" s="45" t="s">
+      <c r="F143" s="35">
+        <v>1</v>
+      </c>
+      <c r="G143" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H143" s="45"/>
+      <c r="H143" s="96"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B144" s="45">
-        <v>12</v>
-      </c>
-      <c r="C144" s="45">
-        <v>1</v>
-      </c>
-      <c r="D144" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E144" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F144" s="45">
-        <v>1</v>
-      </c>
-      <c r="G144" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H144" s="45"/>
+      <c r="B144" s="96">
+        <v>10</v>
+      </c>
+      <c r="C144" s="35">
+        <v>1</v>
+      </c>
+      <c r="D144" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144" s="35">
+        <v>4</v>
+      </c>
+      <c r="G144" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="96"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B145" s="45">
-        <v>12</v>
-      </c>
-      <c r="C145" s="45">
-        <v>1</v>
-      </c>
-      <c r="D145" s="36" t="s">
-        <v>45</v>
+      <c r="B145" s="96">
+        <v>10</v>
+      </c>
+      <c r="C145" s="35">
+        <v>1</v>
+      </c>
+      <c r="D145" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="E145" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F145" s="45">
-        <v>8</v>
-      </c>
-      <c r="G145" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" s="35">
+        <v>3</v>
+      </c>
+      <c r="G145" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H145" s="45">
-        <v>23</v>
-      </c>
+      <c r="H145" s="96"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B146" s="45">
-        <v>12</v>
-      </c>
-      <c r="C146" s="45">
-        <v>1</v>
-      </c>
-      <c r="D146" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E146" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F146" s="45">
-        <v>14</v>
-      </c>
-      <c r="G146" s="99" t="s">
+      <c r="B146" s="96">
+        <v>10</v>
+      </c>
+      <c r="C146" s="35">
+        <v>1</v>
+      </c>
+      <c r="D146" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F146" s="35">
         <v>7</v>
       </c>
-      <c r="H146" s="99"/>
+      <c r="G146" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H146" s="96"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B147" s="45">
-        <v>12</v>
-      </c>
-      <c r="C147" s="45">
-        <v>1</v>
-      </c>
-      <c r="D147" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="E147" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="F147" s="45">
-        <v>3</v>
-      </c>
-      <c r="G147" s="99" t="s">
+      <c r="B147" s="96">
+        <v>10</v>
+      </c>
+      <c r="C147" s="35">
+        <v>1</v>
+      </c>
+      <c r="D147" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F147" s="35">
+        <v>1</v>
+      </c>
+      <c r="G147" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H147" s="99"/>
+      <c r="H147" s="96"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B148" s="45">
-        <v>12</v>
-      </c>
-      <c r="C148" s="45">
-        <v>1</v>
-      </c>
-      <c r="D148" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E148" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F148" s="45">
-        <v>1</v>
-      </c>
-      <c r="G148" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H148" s="99"/>
+      <c r="B148" s="96">
+        <v>10</v>
+      </c>
+      <c r="C148" s="35">
+        <v>1</v>
+      </c>
+      <c r="D148" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F148" s="35">
+        <v>1</v>
+      </c>
+      <c r="G148" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="96"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B149" s="45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" s="45">
         <v>1</v>
       </c>
-      <c r="D149" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="E149" s="45" t="s">
-        <v>105</v>
+      <c r="D149" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E149" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="F149" s="45">
         <v>1</v>
       </c>
-      <c r="G149" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="H149" s="99"/>
+      <c r="G149" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="45"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B150" s="45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" s="45">
         <v>1</v>
       </c>
-      <c r="D150" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E150" s="37" t="s">
-        <v>54</v>
+      <c r="D150" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="E150" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="F150" s="45">
-        <v>3</v>
-      </c>
-      <c r="G150" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="G150" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H150" s="99"/>
+      <c r="H150" s="45"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="35" t="s">
@@ -6458,19 +6563,21 @@
       <c r="C151" s="45">
         <v>1</v>
       </c>
-      <c r="D151" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E151" s="45" t="s">
-        <v>34</v>
+      <c r="D151" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E151" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="F151" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G151" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H151" s="99"/>
+        <v>10</v>
+      </c>
+      <c r="G151" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" s="45">
+        <v>43</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="35" t="s">
@@ -6483,18 +6590,18 @@
         <v>1</v>
       </c>
       <c r="D152" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E152" s="100" t="s">
-        <v>126</v>
+        <v>67</v>
+      </c>
+      <c r="E152" s="98" t="s">
+        <v>68</v>
       </c>
       <c r="F152" s="45">
         <v>5</v>
       </c>
-      <c r="G152" s="99" t="s">
+      <c r="G152" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H152" s="99"/>
+      <c r="H152" s="45"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="35" t="s">
@@ -6506,19 +6613,21 @@
       <c r="C153" s="45">
         <v>1</v>
       </c>
-      <c r="D153" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="E153" s="45" t="s">
-        <v>106</v>
+      <c r="D153" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="F153" s="45">
-        <v>1</v>
-      </c>
-      <c r="G153" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H153" s="99"/>
+      <c r="H153" s="45">
+        <v>23</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="35" t="s">
@@ -6530,19 +6639,19 @@
       <c r="C154" s="45">
         <v>1</v>
       </c>
-      <c r="D154" s="101" t="s">
-        <v>96</v>
+      <c r="D154" s="99" t="s">
+        <v>88</v>
       </c>
       <c r="E154" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F154" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G154" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="H154" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="G154" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H154" s="97"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="35" t="s">
@@ -6554,15 +6663,19 @@
       <c r="C155" s="45">
         <v>1</v>
       </c>
-      <c r="D155" s="101"/>
-      <c r="E155" s="45" t="s">
-        <v>52</v>
+      <c r="D155" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E155" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="F155" s="45">
-        <v>25</v>
-      </c>
-      <c r="G155" s="99"/>
-      <c r="H155" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="G155" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" s="97"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="35" t="s">
@@ -6574,45 +6687,43 @@
       <c r="C156" s="45">
         <v>1</v>
       </c>
-      <c r="D156" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="E156" s="45" t="s">
-        <v>74</v>
+      <c r="D156" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E156" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="F156" s="45">
-        <v>1</v>
-      </c>
-      <c r="G156" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H156" s="99"/>
+        <v>5</v>
+      </c>
+      <c r="G156" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="97"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B157" s="45">
-        <v>13</v>
-      </c>
-      <c r="C157" s="99">
-        <v>1</v>
-      </c>
-      <c r="D157" s="101" t="s">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="C157" s="45">
+        <v>1</v>
+      </c>
+      <c r="D157" s="99" t="s">
+        <v>50</v>
       </c>
       <c r="E157" s="45" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F157" s="45">
-        <v>12</v>
-      </c>
-      <c r="G157" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H157" s="45">
-        <v>45</v>
-      </c>
+      <c r="H157" s="97"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="35" t="s">
@@ -6621,22 +6732,24 @@
       <c r="B158" s="45">
         <v>13</v>
       </c>
-      <c r="C158" s="99">
-        <v>1</v>
-      </c>
-      <c r="D158" s="101" t="s">
-        <v>82</v>
+      <c r="C158" s="97">
+        <v>1</v>
+      </c>
+      <c r="D158" s="99" t="s">
+        <v>100</v>
       </c>
       <c r="E158" s="45" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F158" s="45">
-        <v>7</v>
-      </c>
-      <c r="G158" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H158" s="99"/>
+        <v>12</v>
+      </c>
+      <c r="G158" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H158" s="45">
+        <v>45</v>
+      </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="35" t="s">
@@ -6645,7 +6758,7 @@
       <c r="B159" s="45">
         <v>13</v>
       </c>
-      <c r="C159" s="99">
+      <c r="C159" s="97">
         <v>1</v>
       </c>
       <c r="D159" s="41" t="s">
@@ -6657,10 +6770,10 @@
       <c r="F159" s="45">
         <v>0.5</v>
       </c>
-      <c r="G159" s="99" t="s">
+      <c r="G159" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H159" s="99"/>
+      <c r="H159" s="97"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="35" t="s">
@@ -6669,22 +6782,24 @@
       <c r="B160" s="45">
         <v>13</v>
       </c>
-      <c r="C160" s="99">
-        <v>1</v>
-      </c>
-      <c r="D160" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E160" s="39" t="s">
-        <v>91</v>
+      <c r="C160" s="97">
+        <v>1</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="F160" s="45">
-        <v>1</v>
-      </c>
-      <c r="G160" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H160" s="99"/>
+        <v>18</v>
+      </c>
+      <c r="G160" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" s="45">
+        <v>23</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="35" t="s">
@@ -6693,24 +6808,22 @@
       <c r="B161" s="45">
         <v>13</v>
       </c>
-      <c r="C161" s="99">
-        <v>1</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E161" s="37" t="s">
-        <v>46</v>
+      <c r="C161" s="97">
+        <v>1</v>
+      </c>
+      <c r="D161" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E161" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="F161" s="45">
-        <v>18</v>
-      </c>
-      <c r="G161" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H161" s="45">
-        <v>23</v>
-      </c>
+      <c r="H161" s="97"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="35" t="s">
@@ -6719,22 +6832,22 @@
       <c r="B162" s="45">
         <v>13</v>
       </c>
-      <c r="C162" s="99">
-        <v>1</v>
-      </c>
-      <c r="D162" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E162" s="100" t="s">
-        <v>126</v>
+      <c r="C162" s="97">
+        <v>1</v>
+      </c>
+      <c r="D162" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E162" s="129" t="s">
+        <v>106</v>
       </c>
       <c r="F162" s="45">
-        <v>3</v>
-      </c>
-      <c r="G162" s="99" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="G162" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H162" s="99"/>
+      <c r="H162" s="97"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="35" t="s">
@@ -6743,854 +6856,818 @@
       <c r="B163" s="45">
         <v>13</v>
       </c>
-      <c r="C163" s="99">
+      <c r="C163" s="97">
         <v>1</v>
       </c>
       <c r="D163" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E163" s="45" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="E163" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="F163" s="45">
-        <v>1</v>
-      </c>
-      <c r="G163" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H163" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="G163" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H163" s="97"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B164" s="45">
-        <v>13</v>
-      </c>
-      <c r="C164" s="99">
-        <v>1</v>
-      </c>
-      <c r="D164" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E164" s="37" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="C164" s="97">
+        <v>1</v>
+      </c>
+      <c r="D164" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="E164" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="F164" s="45">
-        <v>1</v>
-      </c>
-      <c r="G164" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H164" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="G164" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H164" s="97"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B165" s="45">
-        <v>13</v>
-      </c>
-      <c r="C165" s="99">
-        <v>1</v>
-      </c>
-      <c r="D165" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="E165" s="45" t="s">
-        <v>106</v>
+      <c r="B165" s="97">
+        <v>14</v>
+      </c>
+      <c r="C165" s="97">
+        <v>1</v>
+      </c>
+      <c r="D165" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="F165" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G165" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H165" s="99"/>
+      <c r="H165" s="97"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B166" s="45">
-        <v>13</v>
-      </c>
-      <c r="C166" s="99">
-        <v>1</v>
-      </c>
-      <c r="D166" s="41" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="C166" s="97">
+        <v>1</v>
+      </c>
+      <c r="D166" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="E166" s="37" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F166" s="45">
-        <v>2</v>
-      </c>
-      <c r="G166" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H166" s="99"/>
+      <c r="H166" s="97"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B167" s="45">
-        <v>13</v>
-      </c>
-      <c r="C167" s="99">
-        <v>1</v>
-      </c>
-      <c r="D167" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="E167" s="45" t="s">
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="C167" s="97">
+        <v>1</v>
+      </c>
+      <c r="D167" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="F167" s="45">
-        <v>1</v>
-      </c>
-      <c r="G167" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H167" s="99"/>
+        <v>0.5</v>
+      </c>
+      <c r="G167" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H167" s="97"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B168" s="45">
-        <v>13</v>
-      </c>
-      <c r="C168" s="99">
-        <v>1</v>
-      </c>
-      <c r="D168" s="47" t="s">
-        <v>94</v>
+        <v>14</v>
+      </c>
+      <c r="C168" s="97">
+        <v>1</v>
+      </c>
+      <c r="D168" s="126" t="s">
+        <v>67</v>
       </c>
       <c r="E168" s="39" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F168" s="45">
-        <v>1</v>
-      </c>
-      <c r="G168" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H168" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="G168" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H168" s="97"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B169" s="45">
-        <v>13</v>
-      </c>
-      <c r="C169" s="99">
-        <v>1</v>
-      </c>
-      <c r="D169" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E169" s="43" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C169" s="97">
+        <v>1</v>
+      </c>
+      <c r="D169" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E169" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="F169" s="45">
-        <v>1</v>
-      </c>
-      <c r="G169" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H169" s="99"/>
+        <v>4</v>
+      </c>
+      <c r="G169" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="97"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B170" s="45">
-        <v>13</v>
-      </c>
-      <c r="C170" s="99">
-        <v>1</v>
-      </c>
-      <c r="D170" s="101"/>
-      <c r="E170" s="45" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="C170" s="97">
+        <v>1</v>
+      </c>
+      <c r="D170" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="F170" s="45">
-        <v>51</v>
-      </c>
-      <c r="G170" s="99"/>
-      <c r="H170" s="99"/>
+        <v>10</v>
+      </c>
+      <c r="G170" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H170" s="97"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B171" s="45">
-        <v>14</v>
-      </c>
-      <c r="C171" s="99">
-        <v>1</v>
-      </c>
-      <c r="D171" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="E171" s="45" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="C171" s="97">
+        <v>1</v>
+      </c>
+      <c r="D171" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E171" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="F171" s="45">
-        <v>3</v>
-      </c>
-      <c r="G171" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H171" s="99"/>
+      <c r="H171" s="97"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B172" s="99">
-        <v>14</v>
-      </c>
-      <c r="C172" s="99">
-        <v>1</v>
-      </c>
-      <c r="D172" s="41" t="s">
-        <v>133</v>
+      <c r="B172" s="97">
+        <v>15</v>
+      </c>
+      <c r="C172" s="97">
+        <v>1</v>
+      </c>
+      <c r="D172" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F172" s="45">
-        <v>3</v>
-      </c>
-      <c r="G172" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H172" s="99"/>
+        <v>17</v>
+      </c>
+      <c r="G172" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="97"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B173" s="45">
-        <v>14</v>
-      </c>
-      <c r="C173" s="99">
-        <v>1</v>
-      </c>
-      <c r="D173" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="E173" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="F173" s="45">
-        <v>1</v>
-      </c>
-      <c r="G173" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="H173" s="99"/>
+      <c r="B173" s="35">
+        <v>5</v>
+      </c>
+      <c r="C173" s="47">
+        <v>1</v>
+      </c>
+      <c r="D173" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E173" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F173" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G173" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="H173" s="96"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B174" s="99">
-        <v>14</v>
-      </c>
-      <c r="C174" s="99">
-        <v>1</v>
-      </c>
-      <c r="D174" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E174" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F174" s="45">
-        <v>7</v>
-      </c>
-      <c r="G174" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H174" s="99"/>
+      <c r="B174" s="96">
+        <v>9</v>
+      </c>
+      <c r="C174" s="35">
+        <v>1</v>
+      </c>
+      <c r="D174" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E174" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="F174" s="35">
+        <v>1</v>
+      </c>
+      <c r="G174" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="H174" s="96"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B175" s="45">
-        <v>14</v>
-      </c>
-      <c r="C175" s="99">
-        <v>1</v>
-      </c>
-      <c r="D175" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E175" s="37" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="C175" s="45">
+        <v>1</v>
+      </c>
+      <c r="D175" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="E175" s="45" t="s">
+        <v>93</v>
       </c>
       <c r="F175" s="45">
-        <v>4</v>
-      </c>
-      <c r="G175" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H175" s="99"/>
+        <v>5</v>
+      </c>
+      <c r="G175" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H175" s="45"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B176" s="99">
-        <v>14</v>
-      </c>
-      <c r="C176" s="99">
-        <v>1</v>
-      </c>
-      <c r="D176" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E176" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F176" s="45">
-        <v>4</v>
-      </c>
-      <c r="G176" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H176" s="99"/>
+      <c r="B176" s="39">
+        <v>1</v>
+      </c>
+      <c r="C176" s="124">
+        <v>1</v>
+      </c>
+      <c r="D176" s="36"/>
+      <c r="E176" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F176" s="37">
+        <v>17</v>
+      </c>
+      <c r="G176" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H176" s="38"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B177" s="45">
-        <v>14</v>
-      </c>
-      <c r="C177" s="99">
-        <v>1</v>
-      </c>
-      <c r="D177" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E177" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F177" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G177" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H177" s="99"/>
+      <c r="B177" s="35">
+        <v>2</v>
+      </c>
+      <c r="C177" s="47">
+        <v>1</v>
+      </c>
+      <c r="D177" s="36"/>
+      <c r="E177" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F177" s="37">
+        <v>12</v>
+      </c>
+      <c r="G177" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H177" s="38"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B178" s="99">
-        <v>14</v>
-      </c>
-      <c r="C178" s="99">
-        <v>1</v>
-      </c>
-      <c r="D178" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E178" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F178" s="45">
-        <v>3</v>
-      </c>
-      <c r="G178" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H178" s="99"/>
+      <c r="B178" s="35">
+        <v>2</v>
+      </c>
+      <c r="C178" s="47">
+        <v>1</v>
+      </c>
+      <c r="D178" s="36"/>
+      <c r="E178" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F178" s="37">
+        <v>20</v>
+      </c>
+      <c r="G178" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H178" s="38"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B179" s="45">
-        <v>14</v>
-      </c>
-      <c r="C179" s="99">
-        <v>1</v>
-      </c>
-      <c r="D179" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E179" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F179" s="45">
+      <c r="B179" s="35">
         <v>2</v>
       </c>
-      <c r="G179" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H179" s="99"/>
+      <c r="C179" s="47">
+        <v>1</v>
+      </c>
+      <c r="D179" s="36"/>
+      <c r="E179" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F179" s="37">
+        <v>30</v>
+      </c>
+      <c r="G179" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H179" s="38"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B180" s="99">
-        <v>14</v>
-      </c>
-      <c r="C180" s="99">
-        <v>1</v>
-      </c>
-      <c r="D180" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="B180" s="35">
+        <v>3</v>
+      </c>
+      <c r="C180" s="47">
+        <v>1</v>
+      </c>
+      <c r="D180" s="36"/>
       <c r="E180" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F180" s="45">
-        <v>10</v>
-      </c>
-      <c r="G180" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H180" s="99"/>
+        <v>60</v>
+      </c>
+      <c r="F180" s="37">
+        <v>22</v>
+      </c>
+      <c r="G180" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H180" s="38"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B181" s="45">
-        <v>14</v>
-      </c>
-      <c r="C181" s="99">
-        <v>1</v>
-      </c>
-      <c r="D181" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E181" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F181" s="45">
-        <v>1</v>
-      </c>
-      <c r="G181" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="H181" s="99"/>
+      <c r="B181" s="35">
+        <v>3</v>
+      </c>
+      <c r="C181" s="47">
+        <v>1</v>
+      </c>
+      <c r="D181" s="36"/>
+      <c r="E181" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F181" s="37">
+        <v>30</v>
+      </c>
+      <c r="G181" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H181" s="38"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B182" s="99">
-        <v>14</v>
-      </c>
-      <c r="C182" s="99">
-        <v>1</v>
-      </c>
-      <c r="D182" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="E182" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F182" s="45">
-        <v>1</v>
-      </c>
-      <c r="G182" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H182" s="99"/>
+      <c r="B182" s="35">
+        <v>3</v>
+      </c>
+      <c r="C182" s="47">
+        <v>1</v>
+      </c>
+      <c r="D182" s="36"/>
+      <c r="E182" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F182" s="37">
+        <v>31</v>
+      </c>
+      <c r="G182" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H182" s="38"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B183" s="45">
-        <v>14</v>
-      </c>
-      <c r="C183" s="99">
-        <v>1</v>
-      </c>
-      <c r="D183" s="101"/>
-      <c r="E183" s="45" t="s">
+      <c r="B183" s="35">
+        <v>4</v>
+      </c>
+      <c r="C183" s="47">
+        <v>1</v>
+      </c>
+      <c r="D183" s="36"/>
+      <c r="E183" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F183" s="45">
-        <v>61</v>
-      </c>
-      <c r="G183" s="99"/>
-      <c r="H183" s="99"/>
+      <c r="F183" s="37">
+        <v>20</v>
+      </c>
+      <c r="G183" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H183" s="38"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B184" s="99">
-        <v>14</v>
-      </c>
-      <c r="C184" s="99">
-        <v>1</v>
-      </c>
-      <c r="D184" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E184" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F184" s="45">
-        <v>1</v>
-      </c>
-      <c r="G184" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H184" s="99"/>
+      <c r="B184" s="35">
+        <v>4</v>
+      </c>
+      <c r="C184" s="47">
+        <v>1</v>
+      </c>
+      <c r="D184" s="36"/>
+      <c r="E184" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F184" s="37">
+        <v>46</v>
+      </c>
+      <c r="G184" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H184" s="38"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B185" s="45">
-        <v>15</v>
-      </c>
-      <c r="C185" s="99">
-        <v>1</v>
-      </c>
-      <c r="D185" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E185" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F185" s="45">
-        <v>4</v>
-      </c>
-      <c r="G185" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H185" s="99"/>
+      <c r="B185" s="35">
+        <v>5</v>
+      </c>
+      <c r="C185" s="47">
+        <v>1</v>
+      </c>
+      <c r="D185" s="36"/>
+      <c r="E185" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F185" s="35">
+        <v>30</v>
+      </c>
+      <c r="G185" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H185" s="96"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B186" s="99">
-        <v>15</v>
-      </c>
-      <c r="C186" s="99">
-        <v>1</v>
-      </c>
-      <c r="D186" s="36" t="s">
-        <v>76</v>
-      </c>
+      <c r="B186" s="35">
+        <v>6</v>
+      </c>
+      <c r="C186" s="96">
+        <v>1</v>
+      </c>
+      <c r="D186" s="36"/>
       <c r="E186" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F186" s="45">
-        <v>37</v>
-      </c>
-      <c r="G186" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H186" s="99"/>
+        <v>59</v>
+      </c>
+      <c r="F186" s="35">
+        <v>30</v>
+      </c>
+      <c r="G186" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H186" s="96"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B187" s="45">
-        <v>15</v>
-      </c>
-      <c r="C187" s="99">
-        <v>1</v>
-      </c>
-      <c r="D187" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E187" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F187" s="45">
-        <v>5</v>
-      </c>
-      <c r="G187" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H187" s="99"/>
+      <c r="B187" s="35">
+        <v>6</v>
+      </c>
+      <c r="C187" s="96">
+        <v>1</v>
+      </c>
+      <c r="D187" s="36"/>
+      <c r="E187" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F187" s="35">
+        <v>25</v>
+      </c>
+      <c r="G187" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H187" s="96"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B188" s="99">
-        <v>15</v>
-      </c>
-      <c r="C188" s="99">
-        <v>1</v>
-      </c>
-      <c r="D188" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E188" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F188" s="45">
-        <v>2</v>
-      </c>
-      <c r="G188" s="99" t="s">
+      <c r="B188" s="96">
         <v>7</v>
       </c>
-      <c r="H188" s="99"/>
+      <c r="C188" s="96">
+        <v>1</v>
+      </c>
+      <c r="D188" s="36"/>
+      <c r="E188" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F188" s="35">
+        <v>24</v>
+      </c>
+      <c r="G188" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H188" s="96"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B189" s="45">
-        <v>15</v>
-      </c>
-      <c r="C189" s="99">
-        <v>1</v>
-      </c>
-      <c r="D189" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E189" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F189" s="45">
-        <v>10</v>
-      </c>
-      <c r="G189" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H189" s="99"/>
+      <c r="B189" s="35">
+        <v>7</v>
+      </c>
+      <c r="C189" s="96">
+        <v>1</v>
+      </c>
+      <c r="D189" s="36"/>
+      <c r="E189" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F189" s="35">
+        <v>64</v>
+      </c>
+      <c r="G189" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H189" s="96"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B190" s="45">
-        <v>15</v>
-      </c>
-      <c r="C190" s="99">
+      <c r="B190" s="35">
+        <v>8</v>
+      </c>
+      <c r="C190" s="96">
         <v>1</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E190" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F190" s="45">
-        <v>4</v>
-      </c>
-      <c r="G190" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H190" s="99"/>
+        <v>136</v>
+      </c>
+      <c r="E190" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F190" s="35">
+        <v>1</v>
+      </c>
+      <c r="G190" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H190" s="96"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B191" s="99">
-        <v>15</v>
-      </c>
-      <c r="C191" s="99">
-        <v>1</v>
-      </c>
-      <c r="D191" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="E191" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F191" s="45">
-        <v>3</v>
-      </c>
-      <c r="G191" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H191" s="99"/>
+      <c r="B191" s="35">
+        <v>8</v>
+      </c>
+      <c r="C191" s="96">
+        <v>1</v>
+      </c>
+      <c r="D191" s="36"/>
+      <c r="E191" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F191" s="35">
+        <v>25</v>
+      </c>
+      <c r="G191" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H191" s="96"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B192" s="45">
-        <v>15</v>
-      </c>
-      <c r="C192" s="99">
-        <v>1</v>
-      </c>
-      <c r="D192" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E192" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F192" s="45">
-        <v>5</v>
-      </c>
-      <c r="G192" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H192" s="99"/>
+      <c r="B192" s="35">
+        <v>8</v>
+      </c>
+      <c r="C192" s="96">
+        <v>1</v>
+      </c>
+      <c r="D192" s="36"/>
+      <c r="E192" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F192" s="35">
+        <v>18</v>
+      </c>
+      <c r="G192" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H192" s="96"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B193" s="99">
-        <v>15</v>
-      </c>
-      <c r="C193" s="99">
-        <v>1</v>
-      </c>
-      <c r="D193" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E193" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F193" s="45">
-        <v>17</v>
-      </c>
-      <c r="G193" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H193" s="99"/>
+      <c r="B193" s="96">
+        <v>9</v>
+      </c>
+      <c r="C193" s="96">
+        <v>1</v>
+      </c>
+      <c r="D193" s="36"/>
+      <c r="E193" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F193" s="35">
+        <v>83</v>
+      </c>
+      <c r="G193" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H193" s="96"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B194" s="45">
-        <v>15</v>
-      </c>
-      <c r="C194" s="99">
-        <v>1</v>
-      </c>
-      <c r="D194" s="41" t="s">
-        <v>108</v>
-      </c>
+      <c r="B194" s="96">
+        <v>10</v>
+      </c>
+      <c r="C194" s="35">
+        <v>1</v>
+      </c>
+      <c r="D194" s="99"/>
       <c r="E194" s="45" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F194" s="45">
-        <v>1</v>
-      </c>
-      <c r="G194" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H194" s="99"/>
+        <v>77</v>
+      </c>
+      <c r="G194" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H194" s="45"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B195" s="45">
-        <v>15</v>
-      </c>
-      <c r="C195" s="99">
-        <v>1</v>
-      </c>
-      <c r="D195" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E195" s="43" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="C195" s="45">
+        <v>1</v>
+      </c>
+      <c r="D195" s="99"/>
+      <c r="E195" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="F195" s="45">
-        <v>2</v>
-      </c>
-      <c r="G195" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H195" s="99"/>
+        <v>87</v>
+      </c>
+      <c r="G195" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H195" s="45"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B196" s="99">
-        <v>15</v>
-      </c>
-      <c r="C196" s="99">
-        <v>1</v>
-      </c>
-      <c r="D196" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E196" s="37" t="s">
-        <v>127</v>
+      <c r="B196" s="45">
+        <v>12</v>
+      </c>
+      <c r="C196" s="45">
+        <v>1</v>
+      </c>
+      <c r="D196" s="99"/>
+      <c r="E196" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="F196" s="45">
-        <v>1</v>
-      </c>
-      <c r="G196" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="H196" s="99"/>
+        <v>25</v>
+      </c>
+      <c r="G196" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="H196" s="97"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B197" s="45">
-        <v>15</v>
-      </c>
-      <c r="C197" s="99">
-        <v>1</v>
-      </c>
-      <c r="D197" s="41" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C197" s="97">
+        <v>1</v>
+      </c>
+      <c r="D197" s="99"/>
       <c r="E197" s="45" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F197" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G197" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="H197" s="99"/>
+        <v>51</v>
+      </c>
+      <c r="G197" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="H197" s="97"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B198" s="99">
-        <v>15</v>
-      </c>
-      <c r="C198" s="99">
-        <v>1</v>
-      </c>
-      <c r="D198" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E198" s="37" t="s">
-        <v>47</v>
+      <c r="B198" s="45">
+        <v>14</v>
+      </c>
+      <c r="C198" s="97">
+        <v>1</v>
+      </c>
+      <c r="D198" s="99"/>
+      <c r="E198" s="45" t="s">
+        <v>59</v>
       </c>
       <c r="F198" s="45">
-        <v>2</v>
-      </c>
-      <c r="G198" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H198" s="99"/>
+        <v>61</v>
+      </c>
+      <c r="G198" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="H198" s="97"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="35" t="s">
@@ -7599,20 +7676,25 @@
       <c r="B199" s="45">
         <v>15</v>
       </c>
-      <c r="C199" s="99">
-        <v>1</v>
-      </c>
-      <c r="D199" s="101"/>
+      <c r="C199" s="97">
+        <v>1</v>
+      </c>
+      <c r="D199" s="99"/>
       <c r="E199" s="45" t="s">
         <v>52</v>
       </c>
       <c r="F199" s="45">
         <v>7</v>
       </c>
-      <c r="G199" s="99"/>
-      <c r="H199" s="99"/>
+      <c r="G199" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="H199" s="97"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H199">
+    <sortCondition ref="G2:G199"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -7634,134 +7716,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.8984375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.8984375" style="55" customWidth="1"/>
-    <col min="2" max="2" width="6.09765625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="55" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="55" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="4.8984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" style="55" customWidth="1"/>
-    <col min="9" max="23" width="4.69921875" style="55" customWidth="1"/>
-    <col min="24" max="24" width="3.59765625" style="55" customWidth="1"/>
-    <col min="25" max="25" width="32.5" style="55" customWidth="1"/>
-    <col min="26" max="257" width="6.8984375" style="55" customWidth="1"/>
-    <col min="258" max="16384" width="6.8984375" style="56"/>
+    <col min="1" max="1" width="5.8984375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" style="53" customWidth="1"/>
+    <col min="9" max="23" width="4.69921875" style="53" customWidth="1"/>
+    <col min="24" max="24" width="3.59765625" style="53" customWidth="1"/>
+    <col min="25" max="25" width="32.5" style="53" customWidth="1"/>
+    <col min="26" max="257" width="6.8984375" style="53" customWidth="1"/>
+    <col min="258" max="16384" width="6.8984375" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="104" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="119" t="s">
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="116" t="s">
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="113" t="s">
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="110" t="s">
+      <c r="P1" s="113"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="107" t="s">
+      <c r="S1" s="110"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="108"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="54"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="52"/>
     </row>
     <row r="2" spans="1:25" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="67" t="s">
+      <c r="P2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="70" t="s">
+      <c r="S2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="72" t="s">
+      <c r="U2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="73" t="s">
+      <c r="V2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="74" t="s">
+      <c r="W2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="75" t="s">
+      <c r="X2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="Y2" s="74" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7772,17 +7854,17 @@
       <c r="B3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="76" t="s">
         <v>110</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="78" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -7832,7 +7914,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
       <c r="J4" s="11">
@@ -7874,7 +7956,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
       <c r="J5" s="11">
@@ -7916,7 +7998,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="81"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="11">
@@ -7958,7 +8040,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="81"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
       <c r="J7" s="11">
@@ -8000,7 +8082,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="81"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="J8" s="11">
@@ -8042,7 +8124,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="81"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="J9" s="11">
@@ -8084,7 +8166,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="81"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
       <c r="J10" s="11">
@@ -8126,7 +8208,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="81"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
       <c r="J11" s="11">
@@ -8168,7 +8250,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="81"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="11">
@@ -8210,7 +8292,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="81"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
       <c r="J13" s="11">
@@ -8252,7 +8334,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="81"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
       <c r="J14" s="11">
@@ -8294,7 +8376,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="81"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
       <c r="J15" s="11">
@@ -8336,7 +8418,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="81"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
       <c r="J16" s="11">
@@ -8378,7 +8460,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="81"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="12"/>
       <c r="I17" s="13"/>
       <c r="J17" s="11">
@@ -8420,7 +8502,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="81"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
       <c r="J18" s="11">
@@ -8462,7 +8544,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="81"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
       <c r="J19" s="11">
@@ -8504,7 +8586,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="81"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
       <c r="J20" s="11">
@@ -8546,7 +8628,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="81"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
       <c r="J21" s="11">
@@ -8588,7 +8670,7 @@
       <c r="D22" s="18"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="81"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
       <c r="J22" s="11">
@@ -8630,7 +8712,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="81"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
       <c r="J23" s="11">
@@ -8672,7 +8754,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="81"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
       <c r="J24" s="11">
@@ -8714,7 +8796,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="81"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
       <c r="J25" s="11">
@@ -8756,7 +8838,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="81"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
       <c r="J26" s="11">
@@ -8798,7 +8880,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="81"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
       <c r="J27" s="11">
@@ -8840,7 +8922,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="81"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
       <c r="J28" s="11">
@@ -8882,7 +8964,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="81"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
       <c r="J29" s="11">
@@ -8924,7 +9006,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="81"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
       <c r="J30" s="11">
@@ -8966,7 +9048,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="81"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
       <c r="J31" s="11">
@@ -9008,7 +9090,7 @@
       <c r="D32" s="18"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="81"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
       <c r="J32" s="11">
@@ -9050,7 +9132,7 @@
       <c r="D33" s="18"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="81"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
       <c r="J33" s="11">
@@ -9092,7 +9174,7 @@
       <c r="D34" s="18"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="81"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
       <c r="J34" s="11">
@@ -9134,7 +9216,7 @@
       <c r="D35" s="18"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="81"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
       <c r="J35" s="11">
@@ -9176,7 +9258,7 @@
       <c r="D36" s="18"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
       <c r="J36" s="11">
@@ -9218,7 +9300,7 @@
       <c r="D37" s="18"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="81"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
       <c r="J37" s="11">
@@ -9260,7 +9342,7 @@
       <c r="D38" s="18"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="81"/>
+      <c r="G38" s="79"/>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
       <c r="J38" s="11">
@@ -9302,7 +9384,7 @@
       <c r="D39" s="18"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="81"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
       <c r="J39" s="11">
@@ -9344,7 +9426,7 @@
       <c r="D40" s="18"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="81"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
       <c r="J40" s="11">
@@ -9386,7 +9468,7 @@
       <c r="D41" s="18"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="81"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
       <c r="J41" s="11">
@@ -9428,7 +9510,7 @@
       <c r="D42" s="18"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="81"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
       <c r="J42" s="11">
@@ -9470,7 +9552,7 @@
       <c r="D43" s="18"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="81"/>
+      <c r="G43" s="79"/>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
       <c r="J43" s="11">
@@ -9512,7 +9594,7 @@
       <c r="D44" s="18"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="81"/>
+      <c r="G44" s="79"/>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
       <c r="J44" s="11">
@@ -9554,7 +9636,7 @@
       <c r="D45" s="18"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="81"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="12"/>
       <c r="I45" s="13"/>
       <c r="J45" s="11">
@@ -9596,7 +9678,7 @@
       <c r="D46" s="18"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="81"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="12"/>
       <c r="I46" s="13"/>
       <c r="J46" s="11">
@@ -9638,7 +9720,7 @@
       <c r="D47" s="18"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="81"/>
+      <c r="G47" s="79"/>
       <c r="H47" s="12"/>
       <c r="I47" s="13"/>
       <c r="J47" s="11">
@@ -9680,7 +9762,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="81"/>
+      <c r="G48" s="79"/>
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
       <c r="J48" s="11">
@@ -9722,7 +9804,7 @@
       <c r="D49" s="18"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="81"/>
+      <c r="G49" s="79"/>
       <c r="H49" s="12"/>
       <c r="I49" s="13"/>
       <c r="J49" s="11">
@@ -9764,7 +9846,7 @@
       <c r="D50" s="18"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="81"/>
+      <c r="G50" s="79"/>
       <c r="H50" s="12"/>
       <c r="I50" s="13"/>
       <c r="J50" s="11">
@@ -9806,7 +9888,7 @@
       <c r="D51" s="18"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="81"/>
+      <c r="G51" s="79"/>
       <c r="H51" s="12"/>
       <c r="I51" s="13"/>
       <c r="J51" s="11">
@@ -9848,7 +9930,7 @@
       <c r="D52" s="18"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="81"/>
+      <c r="G52" s="79"/>
       <c r="H52" s="12"/>
       <c r="I52" s="13"/>
       <c r="J52" s="11">
@@ -9890,7 +9972,7 @@
       <c r="D53" s="18"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="81"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="12"/>
       <c r="I53" s="13"/>
       <c r="J53" s="11">
@@ -9932,7 +10014,7 @@
       <c r="D54" s="18"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="81"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="12"/>
       <c r="I54" s="13"/>
       <c r="J54" s="11">
@@ -9974,7 +10056,7 @@
       <c r="D55" s="18"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="81"/>
+      <c r="G55" s="79"/>
       <c r="H55" s="12"/>
       <c r="I55" s="13"/>
       <c r="J55" s="11">
@@ -10016,7 +10098,7 @@
       <c r="D56" s="18"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="81"/>
+      <c r="G56" s="79"/>
       <c r="H56" s="12"/>
       <c r="I56" s="13"/>
       <c r="J56" s="11">
@@ -10058,7 +10140,7 @@
       <c r="D57" s="18"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="81"/>
+      <c r="G57" s="79"/>
       <c r="H57" s="12"/>
       <c r="I57" s="13"/>
       <c r="J57" s="11">
@@ -10100,7 +10182,7 @@
       <c r="D58" s="18"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="81"/>
+      <c r="G58" s="79"/>
       <c r="H58" s="12"/>
       <c r="I58" s="13"/>
       <c r="J58" s="11">
@@ -10142,7 +10224,7 @@
       <c r="D59" s="18"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="81"/>
+      <c r="G59" s="79"/>
       <c r="H59" s="12"/>
       <c r="I59" s="13"/>
       <c r="J59" s="11">
@@ -10184,7 +10266,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="81"/>
+      <c r="G60" s="79"/>
       <c r="H60" s="12"/>
       <c r="I60" s="13"/>
       <c r="J60" s="11">
@@ -10226,7 +10308,7 @@
       <c r="D61" s="18"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="81"/>
+      <c r="G61" s="79"/>
       <c r="H61" s="12"/>
       <c r="I61" s="13"/>
       <c r="J61" s="11">
@@ -10268,7 +10350,7 @@
       <c r="D62" s="18"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
-      <c r="G62" s="81"/>
+      <c r="G62" s="79"/>
       <c r="H62" s="12"/>
       <c r="I62" s="13"/>
       <c r="J62" s="11">
@@ -10310,7 +10392,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="81"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="12"/>
       <c r="I63" s="13"/>
       <c r="J63" s="11">
@@ -10352,7 +10434,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="81"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="12"/>
       <c r="I64" s="13"/>
       <c r="J64" s="11">
@@ -10394,7 +10476,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="81"/>
+      <c r="G65" s="79"/>
       <c r="H65" s="12"/>
       <c r="I65" s="13"/>
       <c r="J65" s="11">
@@ -10436,7 +10518,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="81"/>
+      <c r="G66" s="79"/>
       <c r="H66" s="12"/>
       <c r="I66" s="13"/>
       <c r="J66" s="11">
@@ -20715,62 +20797,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="85" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="92">
+      <c r="G2" s="90">
         <v>15</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="95"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -20783,7 +20865,7 @@
       <c r="D3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="95" t="s">
         <v>116</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -20809,7 +20891,7 @@
       <c r="D4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="95" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="23" t="s">
@@ -20835,7 +20917,7 @@
       <c r="D5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="95" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="23" t="s">
@@ -20861,7 +20943,7 @@
       <c r="D6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="95" t="s">
         <v>119</v>
       </c>
       <c r="F6" s="23" t="s">
@@ -20887,7 +20969,7 @@
       <c r="D7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="95" t="s">
         <v>120</v>
       </c>
       <c r="F7" s="23" t="s">
@@ -20909,10 +20991,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="101" t="s">
         <v>140</v>
       </c>
       <c r="I8" s="26"/>
@@ -21792,14 +21874,14 @@
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="122" t="s">
+      <c r="E1" s="122"/>
+      <c r="F1" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="123"/>
+      <c r="G1" s="122"/>
       <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
